--- a/medicine/Enfance/Gérard_Lecas/Gérard_Lecas.xlsx
+++ b/medicine/Enfance/Gérard_Lecas/Gérard_Lecas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Lecas</t>
+          <t>Gérard_Lecas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gérard Lecas, né le 12 janvier 1951 à Paris, est un écrivain de roman policier, un traducteur et un scénariste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Lecas</t>
+          <t>Gérard_Lecas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Études scientifiques et mathématiques supérieures à Saint-Nazaire et Nantes. Il se réoriente pour travailler dans le milieu de sa passion et reprend ses études à l’école Nationale de Cinéma Louis Lumière dont il sort diplômé. Il devient ingénieur du son et travaille pour le cinéma, la musique et la télévision.
 Il écrit son premier roman en 1981 qui est publié à la Série noire en 1982. Après trois autres parutions dans cette collection, il publie chez Denoël un recueil de nouvelles intitulé La Vie hors-champ consacrés au monde de l’audiovisuel, puis un roman chez le même éditeur en 1997. En 1998, il écrit Satanique ta mère pour la collection Le Poulpe, titre qui sera diffusé sous forme de feuilleton dans le quotidien Libération durant le mois de juillet de la même année. Il s’essaie à la science-fiction avec Cosmic Blues en 1999.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Lecas</t>
+          <t>Gérard_Lecas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-L’Ennemi public n°2 (1981) Paris, Gallimard, Série noire no 1875, 1982
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L’Ennemi public n°2 (1981) Paris, Gallimard, Série noire no 1875, 1982
 Le Seigneur de Makéni (1986) Paris, Gallimard, Série noire no 2050, 1986
 Overdrive (1988) Paris, Gallimard, Série noire no 2114, 1988
 Le Syndrome du volcan (1993) Paris, Gallimard, Série noire no 2311, 1993
@@ -563,9 +582,43 @@
 Deux balles (2020) Paris, Éditions Jigal no 863, 2020  (ISBN 978-2-37722-089-2)
 Etna (2022) éditions d'Avallon - réédition
 Le Sang de nos ennemis (2023) Paris, Rivages/Noir, 2023
-La Couleur du noir (2023), L'Harmattan
-Littérature d'enfance et de jeunesse
-Chez Scrineo Jeunesse (2012-2014)
+La Couleur du noir (2023), L'Harmattan</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gérard_Lecas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Lecas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chez Scrineo Jeunesse (2012-2014)
 Un perroquet nommé Rocco
 Un voleur pas ordinaire
 Un éléphant ça trompe
@@ -574,44 +627,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>G%C3%A9rard_Lecas</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Lecas</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Adaptations</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>À la télévision
-1984 : L’Ennemi public n°2 - Série noire, téléfilm français réalisé par Edouard Niermans, d'après le roman éponyme, avec Jean-François Stévenin et Jean-Pierre Sentier.</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Lecas</t>
+          <t>Gérard_Lecas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,13 +648,54 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1984 : L’Ennemi public n°2 - Série noire, téléfilm français réalisé par Edouard Niermans, d'après le roman éponyme, avec Jean-François Stévenin et Jean-Pierre Sentier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gérard_Lecas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Lecas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>À la télévision
-2002 : Central Nuit - En toute innocence : saison sept épisode sept : scénario
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2002 : Central Nuit - En toute innocence : saison sept épisode sept : scénario
 2002 : Police District - Banc de touche : saison trois épisode deux : co-scénario
 2002 : La Crim' - Magie noire : saison six épisode un : scénario
 2003 : La Crim' - Hache de guerre : saison huit épisode quatre : scénario
@@ -640,43 +703,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>G%C3%A9rard_Lecas</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Lecas</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Prix</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Prix Polar en séries 2023 pour Le Sang de nos ennemis[1]</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_Lecas</t>
+          <t>Gérard_Lecas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -691,10 +724,44 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prix Polar en séries 2023 pour Le Sang de nos ennemis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gérard_Lecas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_Lecas</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les Auteurs de la Série Noire, 1945-1995, collection Temps noir, Joseph K., 1996, (avec Claude Mesplède), p. 289-290.</t>
         </is>
